--- a/利润表/600729.xlsx
+++ b/利润表/600729.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>004</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-06-30 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>674999129.9299999</v>
+        <v>958090978.66</v>
       </c>
       <c r="P2" t="n">
-        <v>18195420521.69</v>
+        <v>15453781271.71</v>
       </c>
       <c r="Q2" t="n">
-        <v>17402362479.15</v>
+        <v>14740290723.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01447097</v>
+        <v>-40.1675998012</v>
       </c>
       <c r="S2" t="n">
-        <v>14889716253.17</v>
+        <v>11473644819.12</v>
       </c>
       <c r="T2" t="n">
-        <v>14889716253.17</v>
+        <v>11473644819.12</v>
       </c>
       <c r="U2" t="n">
-        <v>1.1344083618</v>
+        <v>-45.161077602</v>
       </c>
       <c r="V2" t="n">
-        <v>1798027907.21</v>
+        <v>2392807895.23</v>
       </c>
       <c r="W2" t="n">
-        <v>562417084.39</v>
+        <v>739685498.8</v>
       </c>
       <c r="X2" t="n">
-        <v>22830338.34</v>
+        <v>24195678.38</v>
       </c>
       <c r="Y2" t="n">
-        <v>800410298.67</v>
+        <v>1117370429.68</v>
       </c>
       <c r="Z2" t="n">
-        <v>804775072.55</v>
+        <v>1125315017.31</v>
       </c>
       <c r="AA2" t="n">
-        <v>112567621.05</v>
+        <v>156025192.84</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>125121763.74</v>
+        <v>105920774.37</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>0.7924966482</v>
+        <v>-39.57198276</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-3.991910529688</v>
+        <v>5.816729740096</v>
       </c>
       <c r="AR2" t="n">
-        <v>-2.984700498899</v>
+        <v>5.9</v>
       </c>
       <c r="AS2" t="n">
-        <v>650131204.74</v>
+        <v>597717156.35</v>
       </c>
       <c r="AT2" t="n">
-        <v>-3.863224013214</v>
+        <v>-31.162669673668</v>
       </c>
     </row>
   </sheetData>
